--- a/src/docs/Component_Mapping_V1.xlsx
+++ b/src/docs/Component_Mapping_V1.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10512"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kousikan.narendran\Desktop\mapping of templates and components\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="84" documentId="9_{0031704F-9924-3F4E-B8AE-678404933868}" xr6:coauthVersionLast="19" xr6:coauthVersionMax="19" xr10:uidLastSave="{95886DB4-2B15-E54B-B891-59A1CD4BDA58}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="171026" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="56">
   <si>
     <t>Header</t>
   </si>
@@ -171,12 +173,33 @@
   </si>
   <si>
     <t>http://www-dev.corpnt.analog.com/en/applications/technology/sdr-radioverse-pavilion-home.html</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>Complete</t>
+  </si>
+  <si>
+    <t>Not Started</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In Progress </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not Started </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -403,6 +426,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -430,61 +460,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="48">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="47" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -520,6 +543,11 @@
       <xdr:nvPicPr>
         <xdr:cNvPr id="4" name="Picture 3">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
@@ -566,6 +594,11 @@
       <xdr:nvPicPr>
         <xdr:cNvPr id="5" name="Picture 4">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
@@ -607,6 +640,11 @@
       <xdr:nvPicPr>
         <xdr:cNvPr id="6" name="Picture 5">
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
@@ -960,25 +998,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView topLeftCell="D20" zoomScale="91" zoomScaleNormal="91" zoomScalePageLayoutView="150" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection activeCell="B2" sqref="B2:F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.97265625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.125" customWidth="1"/>
-    <col min="3" max="3" width="33.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.9453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="33.29296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.015625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.9765625" customWidth="1"/>
+    <col min="7" max="7" width="17.26171875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
@@ -995,8 +1033,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="16" t="s">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1008,10 +1046,10 @@
       <c r="E4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="8" t="s">
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B5" s="11" t="s">
         <v>48</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -1023,10 +1061,10 @@
       <c r="E5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="6"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="9"/>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B6" s="12"/>
       <c r="C6" s="2" t="s">
         <v>24</v>
       </c>
@@ -1036,10 +1074,10 @@
       <c r="E6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="6"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="9"/>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B7" s="12"/>
       <c r="C7" s="1" t="s">
         <v>15</v>
       </c>
@@ -1049,10 +1087,10 @@
       <c r="E7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="9"/>
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B8" s="12"/>
       <c r="C8" s="1" t="s">
         <v>23</v>
       </c>
@@ -1062,10 +1100,10 @@
       <c r="E8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="6"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="9"/>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B9" s="12"/>
       <c r="C9" s="1" t="s">
         <v>23</v>
       </c>
@@ -1075,10 +1113,10 @@
       <c r="E9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="6"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="9"/>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B10" s="12"/>
       <c r="C10" s="1" t="s">
         <v>26</v>
       </c>
@@ -1088,10 +1126,10 @@
       <c r="E10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="6"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="9"/>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B11" s="12"/>
       <c r="C11" s="1" t="s">
         <v>27</v>
       </c>
@@ -1101,10 +1139,10 @@
       <c r="E11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="9"/>
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B12" s="12"/>
       <c r="C12" s="1" t="s">
         <v>28</v>
       </c>
@@ -1114,10 +1152,10 @@
       <c r="E12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="10"/>
+      <c r="F12" s="9"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B13" s="13"/>
       <c r="C13" s="1" t="s">
         <v>1</v>
       </c>
@@ -1127,9 +1165,9 @@
       <c r="E13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="7"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F13" s="10"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
         <v>4</v>
       </c>
@@ -1146,8 +1184,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="16" t="s">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B16" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -1159,10 +1197,10 @@
       <c r="E16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="5"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="8" t="s">
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B17" s="11" t="s">
         <v>30</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -1174,10 +1212,10 @@
       <c r="E17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="6"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="9"/>
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B18" s="12"/>
       <c r="C18" s="2" t="s">
         <v>33</v>
       </c>
@@ -1187,10 +1225,10 @@
       <c r="E18" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="6"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="9"/>
+      <c r="F18" s="9"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B19" s="12"/>
       <c r="C19" s="2" t="s">
         <v>34</v>
       </c>
@@ -1200,10 +1238,10 @@
       <c r="E19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="9"/>
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B20" s="12"/>
       <c r="C20" s="1" t="s">
         <v>28</v>
       </c>
@@ -1213,10 +1251,10 @@
       <c r="E20" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="9"/>
+      <c r="F20" s="9"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B21" s="12"/>
       <c r="C21" s="1" t="s">
         <v>27</v>
       </c>
@@ -1226,10 +1264,10 @@
       <c r="E21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F21" s="6"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="9"/>
+      <c r="F21" s="9"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B22" s="12"/>
       <c r="C22" s="1" t="s">
         <v>2</v>
       </c>
@@ -1239,10 +1277,10 @@
       <c r="E22" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F22" s="6"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="9"/>
+      <c r="F22" s="9"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B23" s="12"/>
       <c r="C23" s="1" t="s">
         <v>36</v>
       </c>
@@ -1252,10 +1290,10 @@
       <c r="E23" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="6"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="10"/>
+      <c r="F23" s="9"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B24" s="13"/>
       <c r="C24" s="1" t="s">
         <v>1</v>
       </c>
@@ -1265,9 +1303,9 @@
       <c r="E24" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="7"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F24" s="10"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" s="3" t="s">
         <v>4</v>
       </c>
@@ -1284,8 +1322,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="16" t="s">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B28" s="7" t="s">
         <v>39</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -1297,10 +1335,10 @@
       <c r="E28" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F28" s="11"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="8" t="s">
+      <c r="F28" s="14"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B29" s="11" t="s">
         <v>47</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -1312,10 +1350,10 @@
       <c r="E29" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F29" s="12"/>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="9"/>
+      <c r="F29" s="15"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B30" s="12"/>
       <c r="C30" s="2" t="s">
         <v>24</v>
       </c>
@@ -1325,49 +1363,49 @@
       <c r="E30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F30" s="12"/>
-    </row>
-    <row r="31" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="9"/>
-      <c r="C31" s="14" t="s">
+      <c r="F30" s="15"/>
+    </row>
+    <row r="31" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="12"/>
+      <c r="C31" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D31" s="15" t="s">
+      <c r="D31" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E31" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" s="12"/>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="9"/>
-      <c r="C32" s="14" t="s">
+      <c r="E31" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="15"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B32" s="12"/>
+      <c r="C32" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E32" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" s="12"/>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="9"/>
+      <c r="E32" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="15"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B33" s="12"/>
       <c r="C33" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E33" s="14" t="s">
+      <c r="E33" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F33" s="12"/>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="9"/>
+      <c r="F33" s="15"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B34" s="12"/>
       <c r="C34" s="1" t="s">
         <v>2</v>
       </c>
@@ -1377,10 +1415,10 @@
       <c r="E34" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F34" s="12"/>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="10"/>
+      <c r="F34" s="15"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B35" s="13"/>
       <c r="C35" s="1" t="s">
         <v>1</v>
       </c>
@@ -1390,7 +1428,7 @@
       <c r="E35" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F35" s="13"/>
+      <c r="F35" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1618,8 +1656,8 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B5:B13" r:id="rId1" display="http://www-dev.corpnt.analog.com/en/applications/technology/sdr-radioverse-pavilion-home.html"/>
-    <hyperlink ref="B17:B24" r:id="rId2" display="http://www-dev.corpnt.analog.com/en/index.html"/>
+    <hyperlink ref="B5:B13" r:id="rId1" display="http://www-dev.corpnt.analog.com/en/applications/technology/sdr-radioverse-pavilion-home.html" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B17:B24" r:id="rId2" display="http://www-dev.corpnt.analog.com/en/index.html" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId3"/>
@@ -1630,4 +1668,803 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B75331D-A601-AB49-9A1E-3FB8859C288B}">
+  <dimension ref="A2:F34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0" xr3:uid="{D572D45B-BD54-5B76-BA51-D58EBD2FD25F}">
+      <selection activeCell="F26" sqref="F26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.6015625" customWidth="1"/>
+    <col min="2" max="2" width="20.83984375" customWidth="1"/>
+    <col min="3" max="3" width="19.9765625" customWidth="1"/>
+    <col min="4" max="4" width="26.7578125" customWidth="1"/>
+    <col min="5" max="5" width="10.234375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="12"/>
+      <c r="B5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="12"/>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="12"/>
+      <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="12"/>
+      <c r="B8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="12"/>
+      <c r="B9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="12"/>
+      <c r="B10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="12"/>
+      <c r="B11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="13"/>
+      <c r="B12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="12"/>
+      <c r="B17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="12"/>
+      <c r="B18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="12"/>
+      <c r="B19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="12"/>
+      <c r="B20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="45" x14ac:dyDescent="0.2">
+      <c r="A21" s="12"/>
+      <c r="B21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="12"/>
+      <c r="B22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" t="s">
+        <v>53</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="13"/>
+      <c r="B23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="12"/>
+      <c r="B29" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="12"/>
+      <c r="B30" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" t="s">
+        <v>55</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="12"/>
+      <c r="B31" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" t="s">
+        <v>55</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="12"/>
+      <c r="B32" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="45" x14ac:dyDescent="0.2">
+      <c r="A33" s="12"/>
+      <c r="B33" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E33" t="s">
+        <v>55</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="13"/>
+      <c r="B34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A4:A12"/>
+    <mergeCell ref="A16:A23"/>
+    <mergeCell ref="A28:A34"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A2:D3 A4:B4 D4:D7 D9 B9:B12 D12 B5:B7">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8 B8">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10:D11">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14:D15 D23 A16 D18 B22:B23 B17:B18">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16 B16">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A26:D27 D34 B34 A28">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28:D29 B28:B29">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F26">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="A4:A12" r:id="rId1" display="http://www-dev.corpnt.analog.com/en/applications/technology/sdr-radioverse-pavilion-home.html" xr:uid="{4DE5E11F-286D-2B46-BA79-ED02F6E96E3C}"/>
+    <hyperlink ref="A16:A23" r:id="rId2" display="http://www-dev.corpnt.analog.com/en/index.html" xr:uid="{D1AF4BD1-4C03-7845-A1A5-9521877A2A2C}"/>
+  </hyperlinks>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+</worksheet>
 </file>